--- a/活頁簿1.xlsx
+++ b/活頁簿1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b60950dacb647973/文件/Code/Timer-App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90DB4528-9EBE-447C-B6D0-EBAF644CC04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{90DB4528-9EBE-447C-B6D0-EBAF644CC04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32A9B31D-D8A2-4DED-9326-23D1A131A897}"/>
   <bookViews>
-    <workbookView xWindow="-20730" yWindow="4485" windowWidth="17280" windowHeight="8970" xr2:uid="{D490BCA5-D133-4F89-92AD-3ED29D9C24C9}"/>
+    <workbookView xWindow="3036" yWindow="3132" windowWidth="17280" windowHeight="8976" xr2:uid="{D490BCA5-D133-4F89-92AD-3ED29D9C24C9}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Order</t>
   </si>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>丹陽</t>
+  </si>
+  <si>
+    <t>00:01.867</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -198,11 +202,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,7 +529,7 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -622,6 +629,10 @@
       <c r="D2" t="s">
         <v>25</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -650,6 +661,7 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -678,6 +690,7 @@
       <c r="D6" t="s">
         <v>37</v>
       </c>
+      <c r="E6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/活頁簿1.xlsx
+++ b/活頁簿1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b60950dacb647973/文件/Code/Timer-App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{90DB4528-9EBE-447C-B6D0-EBAF644CC04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32A9B31D-D8A2-4DED-9326-23D1A131A897}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{90DB4528-9EBE-447C-B6D0-EBAF644CC04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CCEB24E-420E-4242-A7F1-2831EFE103B3}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3132" windowWidth="17280" windowHeight="8976" xr2:uid="{D490BCA5-D133-4F89-92AD-3ED29D9C24C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D490BCA5-D133-4F89-92AD-3ED29D9C24C9}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Order</t>
   </si>
@@ -147,10 +147,6 @@
   </si>
   <si>
     <t>丹陽</t>
-  </si>
-  <si>
-    <t>00:01.867</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -529,7 +525,7 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -629,10 +625,15 @@
       <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -647,6 +648,8 @@
       <c r="D3" t="s">
         <v>28</v>
       </c>
+      <c r="E3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -662,6 +665,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -676,6 +680,7 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -691,6 +696,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/活頁簿1.xlsx
+++ b/活頁簿1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b60950dacb647973/文件/Code/Timer-App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{90DB4528-9EBE-447C-B6D0-EBAF644CC04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CCEB24E-420E-4242-A7F1-2831EFE103B3}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{90DB4528-9EBE-447C-B6D0-EBAF644CC04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E0BEBB0-D440-4A63-94FB-96C4765278CA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D490BCA5-D133-4F89-92AD-3ED29D9C24C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D490BCA5-D133-4F89-92AD-3ED29D9C24C9}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Order</t>
   </si>
@@ -147,6 +147,47 @@
   </si>
   <si>
     <t>丹陽</t>
+  </si>
+  <si>
+    <t>A1U-006</t>
+  </si>
+  <si>
+    <t>A1U-007</t>
+  </si>
+  <si>
+    <t>A1U-008</t>
+  </si>
+  <si>
+    <t>A1U-009</t>
+  </si>
+  <si>
+    <t>DDG-1801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDG-1802</t>
+  </si>
+  <si>
+    <t>DDG-1803</t>
+  </si>
+  <si>
+    <t>DDG-1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基隆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇澳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左營</t>
+  </si>
+  <si>
+    <t>馬公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -522,26 +563,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D757F694-F02A-4C95-B460-46BCBECE3652}">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,93 +653,152 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:X10">
+    <sortCondition ref="X2:X10"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/活頁簿1.xlsx
+++ b/活頁簿1.xlsx
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Order</t>
   </si>
@@ -104,6 +104,96 @@
     <t>Best score</t>
   </si>
   <si>
+    <t>DD-12</t>
+  </si>
+  <si>
+    <t>A1U-005</t>
+  </si>
+  <si>
+    <t>丹陽</t>
+  </si>
+  <si>
+    <t>00:05.257</t>
+  </si>
+  <si>
+    <t>00:07.341</t>
+  </si>
+  <si>
+    <t>00:04.789</t>
+  </si>
+  <si>
+    <t>DDG-1801</t>
+  </si>
+  <si>
+    <t>A1U-006</t>
+  </si>
+  <si>
+    <t>基隆</t>
+  </si>
+  <si>
+    <t>00:07.058</t>
+  </si>
+  <si>
+    <t>00:07.898</t>
+  </si>
+  <si>
+    <t>00:06.574</t>
+  </si>
+  <si>
+    <t>DDG-1802</t>
+  </si>
+  <si>
+    <t>A1U-007</t>
+  </si>
+  <si>
+    <t>蘇澳</t>
+  </si>
+  <si>
+    <t>CV-6</t>
+  </si>
+  <si>
+    <t>A1U-004</t>
+  </si>
+  <si>
+    <t>Enterprise</t>
+  </si>
+  <si>
+    <t>DDG-1805</t>
+  </si>
+  <si>
+    <t>A1U-009</t>
+  </si>
+  <si>
+    <t>馬公</t>
+  </si>
+  <si>
+    <t>BB-61</t>
+  </si>
+  <si>
+    <t>A1U-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa </t>
+  </si>
+  <si>
+    <t>CV-9</t>
+  </si>
+  <si>
+    <t>A1U-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essex </t>
+  </si>
+  <si>
+    <t>DDG-1803</t>
+  </si>
+  <si>
+    <t>A1U-008</t>
+  </si>
+  <si>
+    <t>左營</t>
+  </si>
+  <si>
     <t>Team-A</t>
   </si>
   <si>
@@ -111,100 +201,17 @@
   </si>
   <si>
     <t>Alfa</t>
-  </si>
-  <si>
-    <t>CV-9</t>
-  </si>
-  <si>
-    <t>A1U-002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essex </t>
-  </si>
-  <si>
-    <t>CV-6</t>
-  </si>
-  <si>
-    <t>A1U-004</t>
-  </si>
-  <si>
-    <t>Enterprise</t>
-  </si>
-  <si>
-    <t>BB-61</t>
-  </si>
-  <si>
-    <t>A1U-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iowa </t>
-  </si>
-  <si>
-    <t>DD-12</t>
-  </si>
-  <si>
-    <t>A1U-005</t>
-  </si>
-  <si>
-    <t>丹陽</t>
-  </si>
-  <si>
-    <t>A1U-006</t>
-  </si>
-  <si>
-    <t>A1U-007</t>
-  </si>
-  <si>
-    <t>A1U-008</t>
-  </si>
-  <si>
-    <t>A1U-009</t>
-  </si>
-  <si>
-    <t>DDG-1801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDG-1802</t>
-  </si>
-  <si>
-    <t>DDG-1803</t>
-  </si>
-  <si>
-    <t>DDG-1805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基隆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘇澳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左營</t>
-  </si>
-  <si>
-    <t>馬公</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -235,18 +242,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,18 +578,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="6.625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="10.25" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="9.875" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="10.5" customWidth="1"/>
+    <col min="5" max="9" bestFit="1" width="10.125" customWidth="1"/>
+    <col min="10" max="13" bestFit="1" width="11.25" customWidth="1"/>
+    <col min="14" max="18" bestFit="1" width="8.25" customWidth="1"/>
+    <col min="19" max="22" bestFit="1" width="8.375" customWidth="1"/>
+    <col min="23" max="23" bestFit="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,91 +660,107 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D6" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -749,48 +772,48 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
+      <c r="B8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
+      <c r="B10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="2"/>
@@ -801,5 +824,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/活頁簿1.xlsx
+++ b/活頁簿1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b60950dacb647973/文件/Code/Timer-App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="8_{90DB4528-9EBE-447C-B6D0-EBAF644CC04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E0BEBB0-D440-4A63-94FB-96C4765278CA}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{90DB4528-9EBE-447C-B6D0-EBAF644CC04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25F0BF33-7C45-4A77-99F8-7B10EB00FA2B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D490BCA5-D133-4F89-92AD-3ED29D9C24C9}"/>
+    <workbookView xWindow="1800" yWindow="1290" windowWidth="21600" windowHeight="11325" xr2:uid="{D490BCA5-D133-4F89-92AD-3ED29D9C24C9}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Order</t>
   </si>
@@ -113,13 +113,7 @@
     <t>丹陽</t>
   </si>
   <si>
-    <t>00:05.257</t>
-  </si>
-  <si>
-    <t>00:07.341</t>
-  </si>
-  <si>
-    <t>00:04.789</t>
+    <t>00:42.356</t>
   </si>
   <si>
     <t>DDG-1801</t>
@@ -129,15 +123,6 @@
   </si>
   <si>
     <t>基隆</t>
-  </si>
-  <si>
-    <t>00:07.058</t>
-  </si>
-  <si>
-    <t>00:07.898</t>
-  </si>
-  <si>
-    <t>00:06.574</t>
   </si>
   <si>
     <t>DDG-1802</t>
@@ -573,7 +558,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -676,34 +661,20 @@
       <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>28</v>
-      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="0">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -711,13 +682,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -725,13 +696,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -740,13 +711,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -754,13 +725,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -777,13 +748,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="2"/>
@@ -793,13 +764,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -807,13 +778,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="2"/>
@@ -822,7 +793,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:X10">
     <sortCondition ref="X2:X10"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
